--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Notch4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H2">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I2">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J2">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N2">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O2">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P2">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q2">
-        <v>256.474045489755</v>
+        <v>16.53807435533611</v>
       </c>
       <c r="R2">
-        <v>256.474045489755</v>
+        <v>148.842669198025</v>
       </c>
       <c r="S2">
-        <v>0.6860846885011411</v>
+        <v>0.03438959168456828</v>
       </c>
       <c r="T2">
-        <v>0.6860846885011411</v>
+        <v>0.036996588762768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H3">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I3">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J3">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N3">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P3">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q3">
-        <v>22.32389593786562</v>
+        <v>1.547431925721</v>
       </c>
       <c r="R3">
-        <v>22.32389593786562</v>
+        <v>13.926887331489</v>
       </c>
       <c r="S3">
-        <v>0.05971786798705225</v>
+        <v>0.003217759875897526</v>
       </c>
       <c r="T3">
-        <v>0.05971786798705225</v>
+        <v>0.003461690966204056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H4">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I4">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J4">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N4">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O4">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P4">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q4">
-        <v>3.598545305109266</v>
+        <v>0.2299863982545556</v>
       </c>
       <c r="R4">
-        <v>3.598545305109266</v>
+        <v>2.069877584291</v>
       </c>
       <c r="S4">
-        <v>0.009626341838990315</v>
+        <v>0.0004782381647973871</v>
       </c>
       <c r="T4">
-        <v>0.009626341838990315</v>
+        <v>0.0005144923172091427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H5">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I5">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J5">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N5">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O5">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P5">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q5">
-        <v>1.89787777035339</v>
+        <v>0.1832449636636667</v>
       </c>
       <c r="R5">
-        <v>1.89787777035339</v>
+        <v>1.649204672973</v>
       </c>
       <c r="S5">
-        <v>0.005076945998179605</v>
+        <v>0.0003810431216626959</v>
       </c>
       <c r="T5">
-        <v>0.005076945998179605</v>
+        <v>0.0004099291379304758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H6">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I6">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J6">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N6">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O6">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P6">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q6">
-        <v>12.96238224955268</v>
+        <v>0.8014953316296668</v>
       </c>
       <c r="R6">
-        <v>12.96238224955268</v>
+        <v>4.808971989778001</v>
       </c>
       <c r="S6">
-        <v>0.03467521234335705</v>
+        <v>0.001666644894660211</v>
       </c>
       <c r="T6">
-        <v>0.03467521234335705</v>
+        <v>0.001195326313590778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H7">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I7">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J7">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N7">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O7">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P7">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q7">
-        <v>66.06136118128751</v>
+        <v>323.4524919580361</v>
       </c>
       <c r="R7">
-        <v>66.06136118128751</v>
+        <v>2911.072427622325</v>
       </c>
       <c r="S7">
-        <v>0.1767184212401542</v>
+        <v>0.6725933678127366</v>
       </c>
       <c r="T7">
-        <v>0.1767184212401542</v>
+        <v>0.7235811480919406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H8">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I8">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J8">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N8">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P8">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q8">
-        <v>5.750082624184003</v>
+        <v>30.264751612293</v>
       </c>
       <c r="R8">
-        <v>5.750082624184003</v>
+        <v>272.382764510637</v>
       </c>
       <c r="S8">
-        <v>0.01538184356446583</v>
+        <v>0.0629331098663139</v>
       </c>
       <c r="T8">
-        <v>0.01538184356446583</v>
+        <v>0.06770392642756792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H9">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I9">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J9">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N9">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O9">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P9">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q9">
-        <v>0.9268961335799013</v>
+        <v>4.498085571122555</v>
       </c>
       <c r="R9">
-        <v>0.9268961335799013</v>
+        <v>40.482770140103</v>
       </c>
       <c r="S9">
-        <v>0.002479507210430309</v>
+        <v>0.009353406136019819</v>
       </c>
       <c r="T9">
-        <v>0.002479507210430309</v>
+        <v>0.01006246667653101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H10">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I10">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J10">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N10">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O10">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P10">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q10">
-        <v>0.4888463026573976</v>
+        <v>3.583914237067667</v>
       </c>
       <c r="R10">
-        <v>0.4888463026573976</v>
+        <v>32.255228133609</v>
       </c>
       <c r="S10">
-        <v>0.001307695531698674</v>
+        <v>0.007452460582601079</v>
       </c>
       <c r="T10">
-        <v>0.001307695531698674</v>
+        <v>0.008017414744966367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.869302333333334</v>
+      </c>
+      <c r="H11">
+        <v>20.607907</v>
+      </c>
+      <c r="I11">
+        <v>0.7849286692662342</v>
+      </c>
+      <c r="J11">
+        <v>0.83274320824093</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.281991</v>
+      </c>
+      <c r="N11">
+        <v>4.563982</v>
+      </c>
+      <c r="O11">
+        <v>0.04152775423406879</v>
+      </c>
+      <c r="P11">
+        <v>0.0280737832126037</v>
+      </c>
+      <c r="Q11">
+        <v>15.67568610094567</v>
+      </c>
+      <c r="R11">
+        <v>94.05411660567401</v>
+      </c>
+      <c r="S11">
+        <v>0.03259632486856284</v>
+      </c>
+      <c r="T11">
+        <v>0.02337825229992396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J12">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>47.08665833333333</v>
+      </c>
+      <c r="N12">
+        <v>141.259975</v>
+      </c>
+      <c r="O12">
+        <v>0.8568847006715773</v>
+      </c>
+      <c r="P12">
+        <v>0.8689126983340025</v>
+      </c>
+      <c r="Q12">
+        <v>1.105908648722222</v>
+      </c>
+      <c r="R12">
+        <v>9.953177838499998</v>
+      </c>
+      <c r="S12">
+        <v>0.002299647834012712</v>
+      </c>
+      <c r="T12">
+        <v>0.002473978929279821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J13">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.405797</v>
+      </c>
+      <c r="N13">
+        <v>13.217391</v>
+      </c>
+      <c r="O13">
+        <v>0.0801768521528777</v>
+      </c>
+      <c r="P13">
+        <v>0.08130228593588212</v>
+      </c>
+      <c r="Q13">
+        <v>0.10347748554</v>
+      </c>
+      <c r="R13">
+        <v>0.9312973698599999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002151730848348877</v>
+      </c>
+      <c r="T13">
+        <v>0.0002314848691857177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J14">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6548096666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.964429</v>
+      </c>
+      <c r="O14">
+        <v>0.01191624984823596</v>
+      </c>
+      <c r="P14">
+        <v>0.01208351695570926</v>
+      </c>
+      <c r="Q14">
+        <v>0.01537929637111111</v>
+      </c>
+      <c r="R14">
+        <v>0.13841366734</v>
+      </c>
+      <c r="S14">
+        <v>3.19800063317423E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.440433820030217E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J15">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.521729</v>
+      </c>
+      <c r="N15">
+        <v>1.565187</v>
+      </c>
+      <c r="O15">
+        <v>0.009494443093240277</v>
+      </c>
+      <c r="P15">
+        <v>0.009627715561802291</v>
+      </c>
+      <c r="Q15">
+        <v>0.01225367511333333</v>
+      </c>
+      <c r="R15">
+        <v>0.11028307602</v>
+      </c>
+      <c r="S15">
+        <v>2.548052903432027E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.741215024555042E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J16">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.281991</v>
+      </c>
+      <c r="N16">
+        <v>4.563982</v>
+      </c>
+      <c r="O16">
+        <v>0.04152775423406879</v>
+      </c>
+      <c r="P16">
+        <v>0.0280737832126037</v>
+      </c>
+      <c r="Q16">
+        <v>0.05359636195333333</v>
+      </c>
+      <c r="R16">
+        <v>0.32157817172</v>
+      </c>
+      <c r="S16">
+        <v>0.000111449311676287</v>
+      </c>
+      <c r="T16">
+        <v>7.993202109523506E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.5074835</v>
+      </c>
+      <c r="H17">
+        <v>3.014967</v>
+      </c>
+      <c r="I17">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J17">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.08665833333333</v>
+      </c>
+      <c r="N17">
+        <v>141.259975</v>
+      </c>
+      <c r="O17">
+        <v>0.8568847006715773</v>
+      </c>
+      <c r="P17">
+        <v>0.8689126983340025</v>
+      </c>
+      <c r="Q17">
+        <v>70.98236050763749</v>
+      </c>
+      <c r="R17">
+        <v>425.894163045825</v>
+      </c>
+      <c r="S17">
+        <v>0.1476020933402598</v>
+      </c>
+      <c r="T17">
+        <v>0.1058609825500141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.50744054177669</v>
-      </c>
-      <c r="H11">
-        <v>1.50744054177669</v>
-      </c>
-      <c r="I11">
-        <v>0.2048189433312797</v>
-      </c>
-      <c r="J11">
-        <v>0.2048189433312797</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.21487248947315</v>
-      </c>
-      <c r="N11">
-        <v>2.21487248947315</v>
-      </c>
-      <c r="O11">
-        <v>0.04360668812788766</v>
-      </c>
-      <c r="P11">
-        <v>0.04360668812788766</v>
-      </c>
-      <c r="Q11">
-        <v>3.338788585497692</v>
-      </c>
-      <c r="R11">
-        <v>3.338788585497692</v>
-      </c>
-      <c r="S11">
-        <v>0.00893147578453061</v>
-      </c>
-      <c r="T11">
-        <v>0.00893147578453061</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5074835</v>
+      </c>
+      <c r="H18">
+        <v>3.014967</v>
+      </c>
+      <c r="I18">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J18">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.405797</v>
+      </c>
+      <c r="N18">
+        <v>13.217391</v>
+      </c>
+      <c r="O18">
+        <v>0.0801768521528777</v>
+      </c>
+      <c r="P18">
+        <v>0.08130228593588212</v>
+      </c>
+      <c r="Q18">
+        <v>6.641666281849499</v>
+      </c>
+      <c r="R18">
+        <v>39.84999769109699</v>
+      </c>
+      <c r="S18">
+        <v>0.0138108093258314</v>
+      </c>
+      <c r="T18">
+        <v>0.009905183672924435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5074835</v>
+      </c>
+      <c r="H19">
+        <v>3.014967</v>
+      </c>
+      <c r="I19">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J19">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6548096666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.964429</v>
+      </c>
+      <c r="O19">
+        <v>0.01191624984823596</v>
+      </c>
+      <c r="P19">
+        <v>0.01208351695570926</v>
+      </c>
+      <c r="Q19">
+        <v>0.9871147681404999</v>
+      </c>
+      <c r="R19">
+        <v>5.922688608843</v>
+      </c>
+      <c r="S19">
+        <v>0.002052625541087016</v>
+      </c>
+      <c r="T19">
+        <v>0.001472153623768811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5074835</v>
+      </c>
+      <c r="H20">
+        <v>3.014967</v>
+      </c>
+      <c r="I20">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J20">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.521729</v>
+      </c>
+      <c r="N20">
+        <v>1.565187</v>
+      </c>
+      <c r="O20">
+        <v>0.009494443093240277</v>
+      </c>
+      <c r="P20">
+        <v>0.009627715561802291</v>
+      </c>
+      <c r="Q20">
+        <v>0.7864978589714999</v>
+      </c>
+      <c r="R20">
+        <v>4.718987153829</v>
+      </c>
+      <c r="S20">
+        <v>0.001635458859942183</v>
+      </c>
+      <c r="T20">
+        <v>0.001172959528659898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5074835</v>
+      </c>
+      <c r="H21">
+        <v>3.014967</v>
+      </c>
+      <c r="I21">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J21">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.281991</v>
+      </c>
+      <c r="N21">
+        <v>4.563982</v>
+      </c>
+      <c r="O21">
+        <v>0.04152775423406879</v>
+      </c>
+      <c r="P21">
+        <v>0.0280737832126037</v>
+      </c>
+      <c r="Q21">
+        <v>3.4400637796485</v>
+      </c>
+      <c r="R21">
+        <v>13.760255118594</v>
+      </c>
+      <c r="S21">
+        <v>0.007153335159169459</v>
+      </c>
+      <c r="T21">
+        <v>0.003420272577993721</v>
       </c>
     </row>
   </sheetData>
